--- a/results.xlsx
+++ b/results.xlsx
@@ -1472,10 +1472,10 @@
         <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/results.xlsx
+++ b/results.xlsx
@@ -928,7 +928,7 @@
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
         <v>161</v>
@@ -979,10 +979,10 @@
         <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1098,7 +1098,7 @@
         <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
         <v>161</v>
@@ -1438,10 +1438,10 @@
         <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2152,7 +2152,7 @@
         <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E76" t="s">
         <v>161</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -914,7 +914,7 @@
         <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -945,7 +945,7 @@
         <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
         <v>161</v>
@@ -1115,10 +1115,10 @@
         <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E16" t="s">
         <v>161</v>
@@ -1557,7 +1557,7 @@
         <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
         <v>161</v>
@@ -1744,7 +1744,7 @@
         <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E52" t="s">
         <v>161</v>
@@ -1846,7 +1846,7 @@
         <v>139</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E58" t="s">
         <v>161</v>
@@ -1931,7 +1931,7 @@
         <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E63" t="s">
         <v>161</v>
@@ -2016,7 +2016,7 @@
         <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E68" t="s">
         <v>161</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -911,7 +911,7 @@
         <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
         <v>162</v>
@@ -931,7 +931,7 @@
         <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1849,7 +1849,7 @@
         <v>162</v>
       </c>
       <c r="E58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/results.xlsx
+++ b/results.xlsx
@@ -1030,10 +1030,10 @@
         <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1135,7 +1135,7 @@
         <v>162</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1642,7 +1642,7 @@
         <v>127</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
         <v>161</v>
@@ -1880,10 +1880,10 @@
         <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1897,10 +1897,10 @@
         <v>142</v>
       </c>
       <c r="D61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2118,7 +2118,7 @@
         <v>155</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E74" t="s">
         <v>161</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -965,7 +965,7 @@
         <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1101,7 +1101,7 @@
         <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1200,10 +1200,10 @@
         <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1234,7 +1234,7 @@
         <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E22" t="s">
         <v>161</v>
@@ -1251,10 +1251,10 @@
         <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1302,10 +1302,10 @@
         <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1336,7 +1336,7 @@
         <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
         <v>161</v>
@@ -1353,10 +1353,10 @@
         <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1387,7 +1387,7 @@
         <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
         <v>161</v>
@@ -1404,10 +1404,10 @@
         <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1506,10 +1506,10 @@
         <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1523,10 +1523,10 @@
         <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1540,10 +1540,10 @@
         <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1574,7 +1574,7 @@
         <v>123</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E42" t="s">
         <v>161</v>
@@ -1591,10 +1591,10 @@
         <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1676,7 +1676,7 @@
         <v>129</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E48" t="s">
         <v>161</v>
@@ -1727,10 +1727,10 @@
         <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1747,7 +1747,7 @@
         <v>162</v>
       </c>
       <c r="E52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>161</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1829,10 +1829,10 @@
         <v>138</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2033,7 +2033,7 @@
         <v>150</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
         <v>161</v>
@@ -2084,10 +2084,10 @@
         <v>153</v>
       </c>
       <c r="D72" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E72" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2101,10 +2101,10 @@
         <v>154</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2121,7 +2121,7 @@
         <v>162</v>
       </c>
       <c r="E74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2172,7 +2172,7 @@
         <v>161</v>
       </c>
       <c r="E77" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2203,7 +2203,7 @@
         <v>160</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E79" t="s">
         <v>161</v>
